--- a/Excel_sample/投保級距匯入範例.xlsx
+++ b/Excel_sample/投保級距匯入範例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\彰化彭于晏\case\CDS\testcdsgit_local\Excel_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\彰化彭于晏\case\CDS\testcdsgit_20170523\Excel_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>健保級距</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -36,17 +36,6 @@
   <si>
     <t>勞退級距</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/01/01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保級距</t>
   </si>
 </sst>
 </file>
@@ -119,11 +108,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -134,12 +120,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -451,327 +431,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
         <v>15000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>15000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>15000</v>
       </c>
-      <c r="D2" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="3"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="3"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="D61" s="4"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="C61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
